--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createWayBox.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createWayBox.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,15 +30,9 @@
     <t>create_template</t>
   </si>
   <si>
-    <t>Create new instance template</t>
-  </si>
-  <si>
     <t>create_ag</t>
   </si>
   <si>
-    <t>Create new availability group</t>
-  </si>
-  <si>
     <t>template_cannot_use</t>
   </si>
   <si>
@@ -60,21 +54,12 @@
     <t>ag_tips_one</t>
   </si>
   <si>
-    <t>The instance template currently associated with the availability group will be used by default, and select availability zone in the assigned</t>
-  </si>
-  <si>
     <t>ag_tips_two</t>
   </si>
   <si>
-    <t>by availability group to create VM instance. The newly created virtual machine will have the availability group attribute,</t>
-  </si>
-  <si>
     <t>ag_detail</t>
   </si>
   <si>
-    <t>Detailed introduction of availability group</t>
-  </si>
-  <si>
     <t>custom_create</t>
   </si>
   <si>
@@ -259,6 +244,26 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Create instance template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create AG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance template currently associated with the AG will be used by default, and select AZ in the assigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detailed introduction of AG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by availability group to create VM instance. The newly created virtual machine will have the AG attribute,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -313,9 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,15 +665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -673,10 +681,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -684,128 +692,128 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C12 A1:A12" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1:A12 C4:C6 C10:C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>